--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Icam2-Itgal.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Icam2-Itgal.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.76874</v>
+        <v>21.31228666666667</v>
       </c>
       <c r="H2">
-        <v>71.30622</v>
+        <v>63.93686</v>
       </c>
       <c r="I2">
-        <v>0.9555483638834226</v>
+        <v>0.9506775731819035</v>
       </c>
       <c r="J2">
-        <v>0.9555483638834227</v>
+        <v>0.9506775731819034</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>25.15544366666667</v>
+        <v>0.04738633333333334</v>
       </c>
       <c r="N2">
-        <v>75.466331</v>
+        <v>0.142159</v>
       </c>
       <c r="O2">
-        <v>0.9701024243751556</v>
+        <v>0.05760194168856402</v>
       </c>
       <c r="P2">
-        <v>0.9701024243751556</v>
+        <v>0.05760194168856402</v>
       </c>
       <c r="Q2">
-        <v>597.9132000976466</v>
+        <v>1.009911120082222</v>
       </c>
       <c r="R2">
-        <v>5381.21880087882</v>
+        <v>9.089200080740001</v>
       </c>
       <c r="S2">
-        <v>0.9269797844110216</v>
+        <v>0.05476087413504956</v>
       </c>
       <c r="T2">
-        <v>0.9269797844110217</v>
+        <v>0.05476087413504956</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.76874</v>
+        <v>21.31228666666667</v>
       </c>
       <c r="H3">
-        <v>71.30622</v>
+        <v>63.93686</v>
       </c>
       <c r="I3">
-        <v>0.9555483638834226</v>
+        <v>0.9506775731819035</v>
       </c>
       <c r="J3">
-        <v>0.9555483638834227</v>
+        <v>0.9506775731819034</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.890449</v>
       </c>
       <c r="O3">
-        <v>0.02430128951224074</v>
+        <v>0.7659981644722047</v>
       </c>
       <c r="P3">
-        <v>0.02430128951224074</v>
+        <v>0.7659981644722047</v>
       </c>
       <c r="Q3">
-        <v>14.97786358808666</v>
+        <v>13.42993033890444</v>
       </c>
       <c r="R3">
-        <v>134.80077229278</v>
+        <v>120.86937305014</v>
       </c>
       <c r="S3">
-        <v>0.02322105743367902</v>
+        <v>0.7282172760622281</v>
       </c>
       <c r="T3">
-        <v>0.02322105743367902</v>
+        <v>0.7282172760622281</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.76874</v>
+        <v>21.31228666666667</v>
       </c>
       <c r="H4">
-        <v>71.30622</v>
+        <v>63.93686</v>
       </c>
       <c r="I4">
-        <v>0.9555483638834226</v>
+        <v>0.9506775731819035</v>
       </c>
       <c r="J4">
-        <v>0.9555483638834227</v>
+        <v>0.9506775731819034</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1451156666666666</v>
+        <v>0.1451156666666667</v>
       </c>
       <c r="N4">
-        <v>0.4353469999999999</v>
+        <v>0.435347</v>
       </c>
       <c r="O4">
-        <v>0.005596286112603656</v>
+        <v>0.1763998938392313</v>
       </c>
       <c r="P4">
-        <v>0.005596286112603657</v>
+        <v>0.1763998938392313</v>
       </c>
       <c r="Q4">
-        <v>3.449216550926666</v>
+        <v>3.092746687824445</v>
       </c>
       <c r="R4">
-        <v>31.04294895833999</v>
+        <v>27.83472019042</v>
       </c>
       <c r="S4">
-        <v>0.005347522038721943</v>
+        <v>0.1676994229846258</v>
       </c>
       <c r="T4">
-        <v>0.005347522038721944</v>
+        <v>0.1676994229846258</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7500946666666667</v>
+        <v>0.7500946666666666</v>
       </c>
       <c r="H5">
         <v>2.250284</v>
       </c>
       <c r="I5">
-        <v>0.03015522621270689</v>
+        <v>0.03345948693899053</v>
       </c>
       <c r="J5">
-        <v>0.03015522621270689</v>
+        <v>0.03345948693899053</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>25.15544366666667</v>
+        <v>0.04738633333333334</v>
       </c>
       <c r="N5">
-        <v>75.466331</v>
+        <v>0.142159</v>
       </c>
       <c r="O5">
-        <v>0.9701024243751556</v>
+        <v>0.05760194168856402</v>
       </c>
       <c r="P5">
-        <v>0.9701024243751556</v>
+        <v>0.05760194168856402</v>
       </c>
       <c r="Q5">
-        <v>18.86896413200045</v>
+        <v>0.03554423590622222</v>
       </c>
       <c r="R5">
-        <v>169.820677188004</v>
+        <v>0.319898123156</v>
       </c>
       <c r="S5">
-        <v>0.02925365805652819</v>
+        <v>0.001927331415589002</v>
       </c>
       <c r="T5">
-        <v>0.02925365805652819</v>
+        <v>0.001927331415589002</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7500946666666667</v>
+        <v>0.7500946666666666</v>
       </c>
       <c r="H6">
         <v>2.250284</v>
       </c>
       <c r="I6">
-        <v>0.03015522621270689</v>
+        <v>0.03345948693899053</v>
       </c>
       <c r="J6">
-        <v>0.03015522621270689</v>
+        <v>0.03345948693899053</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>1.890449</v>
       </c>
       <c r="O6">
-        <v>0.02430128951224074</v>
+        <v>0.7659981644722047</v>
       </c>
       <c r="P6">
-        <v>0.02430128951224074</v>
+        <v>0.7659981644722047</v>
       </c>
       <c r="Q6">
-        <v>0.4726719041684444</v>
+        <v>0.4726719041684443</v>
       </c>
       <c r="R6">
-        <v>4.254047137516</v>
+        <v>4.254047137515999</v>
       </c>
       <c r="S6">
-        <v>0.000732810882502101</v>
+        <v>0.02562990557944845</v>
       </c>
       <c r="T6">
-        <v>0.000732810882502101</v>
+        <v>0.02562990557944845</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7500946666666667</v>
+        <v>0.7500946666666666</v>
       </c>
       <c r="H7">
         <v>2.250284</v>
       </c>
       <c r="I7">
-        <v>0.03015522621270689</v>
+        <v>0.03345948693899053</v>
       </c>
       <c r="J7">
-        <v>0.03015522621270689</v>
+        <v>0.03345948693899053</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1451156666666666</v>
+        <v>0.1451156666666667</v>
       </c>
       <c r="N7">
-        <v>0.4353469999999999</v>
+        <v>0.435347</v>
       </c>
       <c r="O7">
-        <v>0.005596286112603656</v>
+        <v>0.1763998938392313</v>
       </c>
       <c r="P7">
-        <v>0.005596286112603657</v>
+        <v>0.1763998938392313</v>
       </c>
       <c r="Q7">
         <v>0.1088504876164444</v>
       </c>
       <c r="R7">
-        <v>0.9796543885479999</v>
+        <v>0.979654388548</v>
       </c>
       <c r="S7">
-        <v>0.0001687572736765933</v>
+        <v>0.005902249943953075</v>
       </c>
       <c r="T7">
-        <v>0.0001687572736765933</v>
+        <v>0.005902249943953075</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>1.066846</v>
       </c>
       <c r="I8">
-        <v>0.01429640990387057</v>
+        <v>0.01586293987910606</v>
       </c>
       <c r="J8">
-        <v>0.01429640990387057</v>
+        <v>0.01586293987910605</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>25.15544366666667</v>
+        <v>0.04738633333333334</v>
       </c>
       <c r="N8">
-        <v>75.466331</v>
+        <v>0.142159</v>
       </c>
       <c r="O8">
-        <v>0.9701024243751556</v>
+        <v>0.05760194168856402</v>
       </c>
       <c r="P8">
-        <v>0.9701024243751556</v>
+        <v>0.05760194168856402</v>
       </c>
       <c r="Q8">
-        <v>8.945661484669555</v>
+        <v>0.01685130672377778</v>
       </c>
       <c r="R8">
-        <v>80.51095336202599</v>
+        <v>0.151661760514</v>
       </c>
       <c r="S8">
-        <v>0.01386898190760583</v>
+        <v>0.000913736137925464</v>
       </c>
       <c r="T8">
-        <v>0.01386898190760583</v>
+        <v>0.0009137361379254638</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>1.066846</v>
       </c>
       <c r="I9">
-        <v>0.01429640990387057</v>
+        <v>0.01586293987910606</v>
       </c>
       <c r="J9">
-        <v>0.01429640990387057</v>
+        <v>0.01586293987910605</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>1.890449</v>
       </c>
       <c r="O9">
-        <v>0.02430128951224074</v>
+        <v>0.7659981644722047</v>
       </c>
       <c r="P9">
-        <v>0.02430128951224074</v>
+        <v>0.7659981644722047</v>
       </c>
       <c r="Q9">
         <v>0.2240908837615555</v>
@@ -1004,10 +1004,10 @@
         <v>2.016817953854</v>
       </c>
       <c r="S9">
-        <v>0.0003474211960596246</v>
+        <v>0.01215098283052818</v>
       </c>
       <c r="T9">
-        <v>0.0003474211960596246</v>
+        <v>0.01215098283052818</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>1.066846</v>
       </c>
       <c r="I10">
-        <v>0.01429640990387057</v>
+        <v>0.01586293987910606</v>
       </c>
       <c r="J10">
-        <v>0.01429640990387057</v>
+        <v>0.01586293987910605</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1451156666666666</v>
+        <v>0.1451156666666667</v>
       </c>
       <c r="N10">
-        <v>0.4353469999999999</v>
+        <v>0.435347</v>
       </c>
       <c r="O10">
-        <v>0.005596286112603656</v>
+        <v>0.1763998938392313</v>
       </c>
       <c r="P10">
-        <v>0.005596286112603657</v>
+        <v>0.1763998938392313</v>
       </c>
       <c r="Q10">
-        <v>0.05160535617355555</v>
+        <v>0.05160535617355556</v>
       </c>
       <c r="R10">
-        <v>0.4644482055619999</v>
+        <v>0.464448205562</v>
       </c>
       <c r="S10">
-        <v>8.000680020512026E-05</v>
+        <v>0.002798220910652417</v>
       </c>
       <c r="T10">
-        <v>8.000680020512027E-05</v>
+        <v>0.002798220910652416</v>
       </c>
     </row>
   </sheetData>
